--- a/biology/Zoologie/Anthidium_florentinum/Anthidium_florentinum.xlsx
+++ b/biology/Zoologie/Anthidium_florentinum/Anthidium_florentinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthidium florentinum est une espèce d'abeille solitaire de la famille des Megachilidae. Comme d'autres espèces de son genre, on peut l'appeler "abeille cotonnière" car elle arrache des poils sur les plantes, les amasse en un ballot de "coton" transporté sous son corps pour garnir son nid (trous du sol, des arbres ou des murs) ; elle ne découpe pas les feuilles ou les pétales comme d'autres espèces de Megachilidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Langue longue, fine. Se distingue par les bords jaune ou rouge brique du thorax. Vole l'été. Mâle nettement plus grand que la femelle.
 </t>
